--- a/dataset/raw/literature/delcastillo2000/delcastillo2000.xlsx
+++ b/dataset/raw/literature/delcastillo2000/delcastillo2000.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">station</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">a440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
     <t xml:space="preserve">AR1</t>
@@ -137,7 +140,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>‡</t>
+      <t xml:space="preserve">‡</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +150,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> Below the photometrical accuracy of the instrument.</t>
+      <t xml:space="preserve"> Below the photometrical accuracy of the instrument.</t>
     </r>
   </si>
   <si>
@@ -160,7 +163,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>§</t>
+      <t xml:space="preserve">§</t>
     </r>
     <r>
       <rPr>
@@ -170,7 +173,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> Stations TB2 and TB3 showed contamination in the fluorescence signal.</t>
+      <t xml:space="preserve"> Stations TB2 and TB3 showed contamination in the fluorescence signal.</t>
     </r>
   </si>
   <si>
@@ -181,8 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -272,12 +276,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,21 +318,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,10 +367,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>29.35</v>
@@ -386,10 +402,13 @@
       <c r="J2" s="0" t="n">
         <v>0.318</v>
       </c>
+      <c r="K2" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>29.3</v>
@@ -418,10 +437,13 @@
       <c r="J3" s="0" t="n">
         <v>0.083</v>
       </c>
+      <c r="K3" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>29</v>
@@ -439,7 +461,7 @@
         <v>89.1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.239</v>
@@ -450,10 +472,13 @@
       <c r="J4" s="0" t="n">
         <v>0.08</v>
       </c>
+      <c r="K4" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>28.5</v>
@@ -471,7 +496,7 @@
         <v>90</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.118</v>
@@ -482,10 +507,13 @@
       <c r="J5" s="0" t="n">
         <v>0.048</v>
       </c>
+      <c r="K5" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -509,15 +537,18 @@
         <v>0.054</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>34773</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>29.3</v>
@@ -544,12 +575,15 @@
         <v>0.041</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>34773</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>30.2</v>
@@ -578,10 +612,13 @@
       <c r="J8" s="0" t="n">
         <v>0.722</v>
       </c>
+      <c r="K8" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>29.4</v>
@@ -610,10 +647,13 @@
       <c r="J9" s="0" t="n">
         <v>0.176</v>
       </c>
+      <c r="K9" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>29</v>
@@ -642,10 +682,13 @@
       <c r="J10" s="0" t="n">
         <v>0.057</v>
       </c>
+      <c r="K10" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>28.5</v>
@@ -672,12 +715,15 @@
         <v>0.07</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>34773</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>28.45</v>
@@ -704,12 +750,15 @@
         <v>0.059</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>34773</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>27.3</v>
@@ -738,10 +787,13 @@
       <c r="J13" s="0" t="n">
         <v>0.072</v>
       </c>
+      <c r="K13" s="2" t="n">
+        <v>34773</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>27.25</v>
@@ -756,7 +808,7 @@
         <v>35.92</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2.7</v>
@@ -768,12 +820,15 @@
         <v>0.048</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>34773</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>27.1</v>
@@ -788,7 +843,7 @@
         <v>36.09</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.71</v>
@@ -800,7 +855,10 @@
         <v>0.05</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>34773</v>
       </c>
     </row>
   </sheetData>
@@ -822,33 +880,33 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="K15 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>35</v>
+      <c r="A1" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
+      <c r="A5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
